--- a/Tutorial_Excel_2/Tutorial2xls2-platformsales.xlsx
+++ b/Tutorial_Excel_2/Tutorial2xls2-platformsales.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -19,6 +19,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Seller name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlueTech Goods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EcoTrend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GadgetPro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomeEssentials</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,14 +140,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
